--- a/Code/Results/Cases/Case_1_84/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_84/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7945485713236735</v>
+        <v>0.6616866237390013</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1182119080163346</v>
+        <v>0.2470851018183993</v>
       </c>
       <c r="E2">
-        <v>0.0788949791369955</v>
+        <v>0.2111592852602122</v>
       </c>
       <c r="F2">
-        <v>0.5518575453065324</v>
+        <v>1.185787563931882</v>
       </c>
       <c r="G2">
-        <v>0.3142492217012531</v>
+        <v>0.58846035291117</v>
       </c>
       <c r="H2">
-        <v>0.2819796825466057</v>
+        <v>0.7230156465604267</v>
       </c>
       <c r="I2">
-        <v>0.3663293862282764</v>
+        <v>0.9517935416403063</v>
       </c>
       <c r="J2">
-        <v>0.09241456499224299</v>
+        <v>0.2405543620730919</v>
       </c>
       <c r="K2">
-        <v>1.147402190172755</v>
+        <v>0.3527072758554084</v>
       </c>
       <c r="L2">
-        <v>0.2845832354776263</v>
+        <v>0.1912940963748326</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8790990827691942</v>
+        <v>1.708981930492296</v>
       </c>
       <c r="O2">
-        <v>1.204952744224229</v>
+        <v>2.602805716542477</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.698817115280832</v>
+        <v>0.6359877030851919</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1122610274085361</v>
+        <v>0.2466644782945124</v>
       </c>
       <c r="E3">
-        <v>0.07953124607294981</v>
+        <v>0.2123293678808338</v>
       </c>
       <c r="F3">
-        <v>0.5379101715119319</v>
+        <v>1.189965429767511</v>
       </c>
       <c r="G3">
-        <v>0.3034656335921042</v>
+        <v>0.5902415309380444</v>
       </c>
       <c r="H3">
-        <v>0.2817432229255203</v>
+        <v>0.7270703289106422</v>
       </c>
       <c r="I3">
-        <v>0.3780091958501792</v>
+        <v>0.9606145213534116</v>
       </c>
       <c r="J3">
-        <v>0.09497110160181776</v>
+        <v>0.2421974671206328</v>
       </c>
       <c r="K3">
-        <v>1.005313541480291</v>
+        <v>0.3079151559503259</v>
       </c>
       <c r="L3">
-        <v>0.2487828401532113</v>
+        <v>0.1815066864805885</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9088468426719949</v>
+        <v>1.722851070207874</v>
       </c>
       <c r="O3">
-        <v>1.181288777717953</v>
+        <v>2.614839666790189</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6402332135066899</v>
+        <v>0.6204099208984246</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.108706545158114</v>
+        <v>0.2464884816562147</v>
       </c>
       <c r="E4">
-        <v>0.08000204784944742</v>
+        <v>0.2131091252754995</v>
       </c>
       <c r="F4">
-        <v>0.530200824311386</v>
+        <v>1.193067388681897</v>
       </c>
       <c r="G4">
-        <v>0.2974474226625503</v>
+        <v>0.5916662550925054</v>
       </c>
       <c r="H4">
-        <v>0.2819916305334758</v>
+        <v>0.7298242064953939</v>
       </c>
       <c r="I4">
-        <v>0.3857645256483337</v>
+        <v>0.9663985993415238</v>
       </c>
       <c r="J4">
-        <v>0.09662128612181808</v>
+        <v>0.2432651180077952</v>
       </c>
       <c r="K4">
-        <v>0.9179148621861373</v>
+        <v>0.2803216571898872</v>
       </c>
       <c r="L4">
-        <v>0.2268687480385125</v>
+        <v>0.1755521655301777</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9280165722813365</v>
+        <v>1.731863946350003</v>
       </c>
       <c r="O4">
-        <v>1.168852949022437</v>
+        <v>2.6234754833133</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.616403731418302</v>
+        <v>0.6141131818014287</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1072823972470047</v>
+        <v>0.2464375290769638</v>
       </c>
       <c r="E5">
-        <v>0.08021376689259085</v>
+        <v>0.2134423357374047</v>
       </c>
       <c r="F5">
-        <v>0.5272664946289254</v>
+        <v>1.194466619642306</v>
       </c>
       <c r="G5">
-        <v>0.295140083559609</v>
+        <v>0.5923301426128091</v>
       </c>
       <c r="H5">
-        <v>0.2821890047312579</v>
+        <v>0.7310129862582642</v>
       </c>
       <c r="I5">
-        <v>0.3890683766748531</v>
+        <v>0.9688482581717732</v>
       </c>
       <c r="J5">
-        <v>0.09731381648840509</v>
+        <v>0.2437149997586063</v>
       </c>
       <c r="K5">
-        <v>0.8822539333799</v>
+        <v>0.2690550011340065</v>
       </c>
       <c r="L5">
-        <v>0.2179531150766678</v>
+        <v>0.1731396829976575</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9360515278766464</v>
+        <v>1.735661892189604</v>
       </c>
       <c r="O5">
-        <v>1.164292103467389</v>
+        <v>2.627308496773708</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6124493691985435</v>
+        <v>0.6130707333489624</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1070473694409344</v>
+        <v>0.2464303251118451</v>
       </c>
       <c r="E6">
-        <v>0.08025011418547834</v>
+        <v>0.2134985993761358</v>
       </c>
       <c r="F6">
-        <v>0.5267915560683818</v>
+        <v>1.194707129692567</v>
       </c>
       <c r="G6">
-        <v>0.2947655323983938</v>
+        <v>0.5924454132549926</v>
       </c>
       <c r="H6">
-        <v>0.2822275050794119</v>
+        <v>0.731214404632496</v>
       </c>
       <c r="I6">
-        <v>0.3896255499091623</v>
+        <v>0.9692606171286755</v>
       </c>
       <c r="J6">
-        <v>0.09743001784755911</v>
+        <v>0.2437905972284184</v>
       </c>
       <c r="K6">
-        <v>0.8763295583141542</v>
+        <v>0.2671828710742545</v>
       </c>
       <c r="L6">
-        <v>0.216473490221091</v>
+        <v>0.1727399457271588</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9373990802957373</v>
+        <v>1.736300098711045</v>
       </c>
       <c r="O6">
-        <v>1.163564830760947</v>
+        <v>2.627963930190518</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6399116696407248</v>
+        <v>0.6203247921300772</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1086872409308626</v>
+        <v>0.2464877102980267</v>
       </c>
       <c r="E7">
-        <v>0.08000482311114254</v>
+        <v>0.2131135564554292</v>
       </c>
       <c r="F7">
-        <v>0.5301604213634761</v>
+        <v>1.193085711697222</v>
       </c>
       <c r="G7">
-        <v>0.297415725836359</v>
+        <v>0.5916748711636259</v>
       </c>
       <c r="H7">
-        <v>0.2819939067493848</v>
+        <v>0.7298399692001993</v>
       </c>
       <c r="I7">
-        <v>0.385808505863066</v>
+        <v>0.9664312612646242</v>
       </c>
       <c r="J7">
-        <v>0.09663054479404076</v>
+        <v>0.2432711252902209</v>
       </c>
       <c r="K7">
-        <v>0.9174341174918368</v>
+        <v>0.2801697994856625</v>
       </c>
       <c r="L7">
-        <v>0.2267484529624824</v>
+        <v>0.1755195728548813</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9281240365952961</v>
+        <v>1.731914660000605</v>
       </c>
       <c r="O7">
-        <v>1.16878941305886</v>
+        <v>2.623525905516374</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7614964974178804</v>
+        <v>0.652784219104916</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1161390116473555</v>
+        <v>0.2469230438662393</v>
       </c>
       <c r="E8">
-        <v>0.07909755767821025</v>
+        <v>0.2115500222377662</v>
       </c>
       <c r="F8">
-        <v>0.5468665183747845</v>
+        <v>1.187116806845495</v>
       </c>
       <c r="G8">
-        <v>0.3104019087952778</v>
+        <v>0.5890058175318487</v>
       </c>
       <c r="H8">
-        <v>0.2818147229471109</v>
+        <v>0.7243589053938209</v>
       </c>
       <c r="I8">
-        <v>0.3702333629068253</v>
+        <v>0.9547586898400127</v>
       </c>
       <c r="J8">
-        <v>0.0932792585443516</v>
+        <v>0.2411087206380533</v>
       </c>
       <c r="K8">
-        <v>1.098438502151168</v>
+        <v>0.3372822917897622</v>
       </c>
       <c r="L8">
-        <v>0.2722237368591465</v>
+        <v>0.1879081048985256</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8891657467309315</v>
+        <v>1.713660888593669</v>
       </c>
       <c r="O8">
-        <v>1.196346710088264</v>
+        <v>2.606696400670728</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.001737517573531</v>
+        <v>0.7180093834035972</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1315722022244969</v>
+        <v>0.2484261827361536</v>
       </c>
       <c r="E9">
-        <v>0.07796758464314024</v>
+        <v>0.208969042982984</v>
       </c>
       <c r="F9">
-        <v>0.5867635710608496</v>
+        <v>1.179662831927331</v>
       </c>
       <c r="G9">
-        <v>0.3409586446084987</v>
+        <v>0.5863971013587559</v>
       </c>
       <c r="H9">
-        <v>0.2847198635490642</v>
+        <v>0.7157034869399297</v>
       </c>
       <c r="I9">
-        <v>0.3444782181696304</v>
+        <v>0.9347849908283621</v>
       </c>
       <c r="J9">
-        <v>0.0873533243557727</v>
+        <v>0.2373334579062281</v>
       </c>
       <c r="K9">
-        <v>1.452462929452111</v>
+        <v>0.4485284148085782</v>
       </c>
       <c r="L9">
-        <v>0.3620563038788873</v>
+        <v>0.2126305235586585</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8201453302065396</v>
+        <v>1.681804920041547</v>
       </c>
       <c r="O9">
-        <v>1.267931277390389</v>
+        <v>2.583575860193321</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.179747964694883</v>
+        <v>0.7668588338320603</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1434581345216657</v>
+        <v>0.249922354354112</v>
       </c>
       <c r="E10">
-        <v>0.07755238536333309</v>
+        <v>0.2073665721048705</v>
       </c>
       <c r="F10">
-        <v>0.6209478309464558</v>
+        <v>1.176768654271896</v>
       </c>
       <c r="G10">
-        <v>0.3669598060541404</v>
+        <v>0.5860795497332845</v>
       </c>
       <c r="H10">
-        <v>0.2890342900352039</v>
+        <v>0.7106149862590314</v>
       </c>
       <c r="I10">
-        <v>0.3286967908520921</v>
+        <v>0.9218831893753112</v>
       </c>
       <c r="J10">
-        <v>0.08340379845256862</v>
+        <v>0.2348417119757178</v>
       </c>
       <c r="K10">
-        <v>1.712484505844628</v>
+        <v>0.5297706737494821</v>
       </c>
       <c r="L10">
-        <v>0.4286383337083493</v>
+        <v>0.231046790862905</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7742196670078947</v>
+        <v>1.660794453959074</v>
       </c>
       <c r="O10">
-        <v>1.332577728644026</v>
+        <v>2.572599980753864</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.261151070709218</v>
+        <v>0.7892772708449058</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1489951058851915</v>
+        <v>0.2506872307180998</v>
       </c>
       <c r="E11">
-        <v>0.0774580199570174</v>
+        <v>0.2067009435461635</v>
       </c>
       <c r="F11">
-        <v>0.6376784373486686</v>
+        <v>1.176010833123847</v>
       </c>
       <c r="G11">
-        <v>0.3796639356841069</v>
+        <v>0.5862820694411539</v>
       </c>
       <c r="H11">
-        <v>0.2915159058190255</v>
+        <v>0.7085749055052162</v>
       </c>
       <c r="I11">
-        <v>0.3222506729407861</v>
+        <v>0.9163977448682914</v>
       </c>
       <c r="J11">
-        <v>0.08169721411191766</v>
+        <v>0.2337690179856242</v>
       </c>
       <c r="K11">
-        <v>1.830873770171934</v>
+        <v>0.5666170145210003</v>
       </c>
       <c r="L11">
-        <v>0.4590978584901535</v>
+        <v>0.2394779946715602</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7544320876890644</v>
+        <v>1.651754515700116</v>
       </c>
       <c r="O11">
-        <v>1.364921178813177</v>
+        <v>2.568909222783503</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.292045439435412</v>
+        <v>0.7977941938718516</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1511114344688878</v>
+        <v>0.2509889087038601</v>
       </c>
       <c r="E12">
-        <v>0.07743625845841784</v>
+        <v>0.2064579629957635</v>
       </c>
       <c r="F12">
-        <v>0.6441941852070627</v>
+        <v>1.175804039078287</v>
       </c>
       <c r="G12">
-        <v>0.3846098022537205</v>
+        <v>0.5864086176201226</v>
       </c>
       <c r="H12">
-        <v>0.2925342639657913</v>
+        <v>0.7078417916754631</v>
       </c>
       <c r="I12">
-        <v>0.3199196080237563</v>
+        <v>0.9143756455530685</v>
       </c>
       <c r="J12">
-        <v>0.08106413984578698</v>
+        <v>0.2333715356919068</v>
       </c>
       <c r="K12">
-        <v>1.875729490465659</v>
+        <v>0.5805530644264536</v>
       </c>
       <c r="L12">
-        <v>0.4706603781474854</v>
+        <v>0.2426781861773009</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7471037729276162</v>
+        <v>1.648405687538805</v>
       </c>
       <c r="O12">
-        <v>1.377618755663491</v>
+        <v>2.567698628542502</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.285388598846311</v>
+        <v>0.7959587083940391</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1506547587485159</v>
+        <v>0.2509234029356406</v>
       </c>
       <c r="E13">
-        <v>0.07744031748779534</v>
+        <v>0.2065098899141109</v>
       </c>
       <c r="F13">
-        <v>0.6427827123413792</v>
+        <v>1.175845012753591</v>
       </c>
       <c r="G13">
-        <v>0.3835384626668912</v>
+        <v>0.5863791463280279</v>
       </c>
       <c r="H13">
-        <v>0.2923113793576277</v>
+        <v>0.7079979289167682</v>
       </c>
       <c r="I13">
-        <v>0.3204166801502843</v>
+        <v>0.9148086901440955</v>
       </c>
       <c r="J13">
-        <v>0.08119989429323482</v>
+        <v>0.2334567529671991</v>
       </c>
       <c r="K13">
-        <v>1.866067773627407</v>
+        <v>0.5775524504807095</v>
       </c>
       <c r="L13">
-        <v>0.4681688710275864</v>
+        <v>0.2419886386635284</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7486746273073663</v>
+        <v>1.649123609605198</v>
       </c>
       <c r="O13">
-        <v>1.374863641648744</v>
+        <v>2.567951037976883</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.263691345199504</v>
+        <v>0.7899774152604095</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1491688194045366</v>
+        <v>0.2507118091917988</v>
       </c>
       <c r="E14">
-        <v>0.0774559473451486</v>
+        <v>0.2066807716152024</v>
       </c>
       <c r="F14">
-        <v>0.6382108172714354</v>
+        <v>1.175992214185769</v>
       </c>
       <c r="G14">
-        <v>0.3800680736945594</v>
+        <v>0.5862914816108429</v>
       </c>
       <c r="H14">
-        <v>0.2915980872898842</v>
+        <v>0.7085138022106747</v>
       </c>
       <c r="I14">
-        <v>0.3220566646231049</v>
+        <v>0.9162302811436547</v>
       </c>
       <c r="J14">
-        <v>0.08164486543301308</v>
+        <v>0.233736142164906</v>
       </c>
       <c r="K14">
-        <v>1.834563535112409</v>
+        <v>0.5677638846313755</v>
       </c>
       <c r="L14">
-        <v>0.4600485283476416</v>
+        <v>0.2397411277687098</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7538258441248544</v>
+        <v>1.651477514850765</v>
       </c>
       <c r="O14">
-        <v>1.36595663684642</v>
+        <v>2.56880587978759</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.250410342385408</v>
+        <v>0.7863172666342564</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1482612184512959</v>
+        <v>0.25058376695155</v>
       </c>
       <c r="E15">
-        <v>0.07746735235691204</v>
+        <v>0.2067866229909026</v>
       </c>
       <c r="F15">
-        <v>0.6354341937935786</v>
+        <v>1.1760928155336</v>
       </c>
       <c r="G15">
-        <v>0.3779602319813193</v>
+        <v>0.5862442763801994</v>
       </c>
       <c r="H15">
-        <v>0.2911715370702552</v>
+        <v>0.7088349207911619</v>
       </c>
       <c r="I15">
-        <v>0.323075658662038</v>
+        <v>0.91710822341323</v>
       </c>
       <c r="J15">
-        <v>0.08191914517261001</v>
+        <v>0.2339084115615231</v>
       </c>
       <c r="K15">
-        <v>1.815269728106983</v>
+        <v>0.5617658838541217</v>
       </c>
       <c r="L15">
-        <v>0.4550783608572431</v>
+        <v>0.238365429630619</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7570027606787662</v>
+        <v>1.652929037068734</v>
       </c>
       <c r="O15">
-        <v>1.36056026739945</v>
+        <v>2.569353842822608</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.174437278889826</v>
+        <v>0.7653976303272998</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1430989725924263</v>
+        <v>0.2498740565255417</v>
       </c>
       <c r="E16">
-        <v>0.07756048645127578</v>
+        <v>0.2074113445477828</v>
       </c>
       <c r="F16">
-        <v>0.6198790796963323</v>
+        <v>1.176829408560756</v>
       </c>
       <c r="G16">
-        <v>0.3661479572010364</v>
+        <v>0.586073293543663</v>
       </c>
       <c r="H16">
-        <v>0.2888828900243681</v>
+        <v>0.7107538310964117</v>
       </c>
       <c r="I16">
-        <v>0.3291331917405351</v>
+        <v>0.9222493919030548</v>
       </c>
       <c r="J16">
-        <v>0.08351715886345623</v>
+        <v>0.2349130369539285</v>
       </c>
       <c r="K16">
-        <v>1.704750364522653</v>
+        <v>0.5273603670277964</v>
       </c>
       <c r="L16">
-        <v>0.426651473147615</v>
+        <v>0.2304968503987084</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.775535559846471</v>
+        <v>1.661395649788954</v>
       </c>
       <c r="O16">
-        <v>1.330525409169752</v>
+        <v>2.572867363845603</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.127944464103138</v>
+        <v>0.7526139467657345</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1399660271250127</v>
+        <v>0.2494601958924818</v>
       </c>
       <c r="E17">
-        <v>0.07764209439238989</v>
+        <v>0.2078107932734028</v>
       </c>
       <c r="F17">
-        <v>0.6106460736391526</v>
+        <v>1.177424272905597</v>
       </c>
       <c r="G17">
-        <v>0.3591322137440898</v>
+        <v>0.5860572442886536</v>
       </c>
       <c r="H17">
-        <v>0.2876145711616118</v>
+        <v>0.7120013205134228</v>
       </c>
       <c r="I17">
-        <v>0.3330401776625358</v>
+        <v>0.9255015592830098</v>
       </c>
       <c r="J17">
-        <v>0.08452071238873327</v>
+        <v>0.2355449027442571</v>
       </c>
       <c r="K17">
-        <v>1.636983398070214</v>
+        <v>0.5062246019963652</v>
       </c>
       <c r="L17">
-        <v>0.4092587668944105</v>
+        <v>0.2256832891149969</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7871918427305893</v>
+        <v>1.666722225242019</v>
       </c>
       <c r="O17">
-        <v>1.31287105597184</v>
+        <v>2.575356153929761</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.101242570039147</v>
+        <v>0.7452796558939951</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1381762193234835</v>
+        <v>0.249230090009803</v>
       </c>
       <c r="E18">
-        <v>0.0776979050979083</v>
+        <v>0.208046509603184</v>
       </c>
       <c r="F18">
-        <v>0.605445896509508</v>
+        <v>1.177819026099137</v>
       </c>
       <c r="G18">
-        <v>0.3551788284564736</v>
+        <v>0.5860806743806393</v>
       </c>
       <c r="H18">
-        <v>0.2869336622664491</v>
+        <v>0.7127447047096069</v>
       </c>
       <c r="I18">
-        <v>0.3353560746495852</v>
+        <v>0.9274082337779426</v>
       </c>
       <c r="J18">
-        <v>0.08510639447219859</v>
+        <v>0.235914060575821</v>
       </c>
       <c r="K18">
-        <v>1.598014838401269</v>
+        <v>0.4940574573193999</v>
       </c>
       <c r="L18">
-        <v>0.3992708131260514</v>
+        <v>0.2229197098436373</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7939997855247753</v>
+        <v>1.669834674599262</v>
       </c>
       <c r="O18">
-        <v>1.302991288931082</v>
+        <v>2.576910226288391</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.09220833434992</v>
+        <v>0.7427995982261848</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.137572286208794</v>
+        <v>0.2491535455514935</v>
       </c>
       <c r="E19">
-        <v>0.07771831403890594</v>
+        <v>0.2081273443435609</v>
       </c>
       <c r="F19">
-        <v>0.6037038558821024</v>
+        <v>1.177961722584634</v>
       </c>
       <c r="G19">
-        <v>0.3538540746359757</v>
+        <v>0.5860942180931943</v>
       </c>
       <c r="H19">
-        <v>0.2867113462458519</v>
+        <v>0.713000846014495</v>
       </c>
       <c r="I19">
-        <v>0.3361518623467532</v>
+        <v>0.9280600050797894</v>
       </c>
       <c r="J19">
-        <v>0.08530614361895328</v>
+        <v>0.2360400350583944</v>
       </c>
       <c r="K19">
-        <v>1.584822062382926</v>
+        <v>0.4899361095953623</v>
       </c>
       <c r="L19">
-        <v>0.3958916845209615</v>
+        <v>0.2219848841846925</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7963224454632396</v>
+        <v>1.670896870260293</v>
       </c>
       <c r="O19">
-        <v>1.299692505151683</v>
+        <v>2.577457470145646</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.13288955726992</v>
+        <v>0.7539728775003312</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1402982675780322</v>
+        <v>0.2495034313217701</v>
       </c>
       <c r="E20">
-        <v>0.07763248615672858</v>
+        <v>0.2077676542435025</v>
       </c>
       <c r="F20">
-        <v>0.6116174419789431</v>
+        <v>1.177355505615836</v>
       </c>
       <c r="G20">
-        <v>0.3598705124868928</v>
+        <v>0.5860555727086023</v>
       </c>
       <c r="H20">
-        <v>0.2877445282806548</v>
+        <v>0.7118658471815564</v>
       </c>
       <c r="I20">
-        <v>0.3326171297320002</v>
+        <v>0.9251516232223373</v>
       </c>
       <c r="J20">
-        <v>0.08441300478146552</v>
+        <v>0.2354770471561842</v>
       </c>
       <c r="K20">
-        <v>1.644196289180883</v>
+        <v>0.5084756241589616</v>
       </c>
       <c r="L20">
-        <v>0.4111085824980734</v>
+        <v>0.2261951794895651</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7859402510888955</v>
+        <v>1.666150157829033</v>
       </c>
       <c r="O20">
-        <v>1.314721781464641</v>
+        <v>2.575078532525907</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.270062424750677</v>
+        <v>0.791733524150942</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1496047365036901</v>
+        <v>0.2507736333952124</v>
       </c>
       <c r="E21">
-        <v>0.07745097413617508</v>
+        <v>0.2066303333685084</v>
       </c>
       <c r="F21">
-        <v>0.6395487153259012</v>
+        <v>1.175946802965839</v>
       </c>
       <c r="G21">
-        <v>0.3810836696099642</v>
+        <v>0.5863158780152844</v>
       </c>
       <c r="H21">
-        <v>0.2918054316160976</v>
+        <v>0.7083612085084496</v>
       </c>
       <c r="I21">
-        <v>0.3215719403400961</v>
+        <v>0.9158112298692842</v>
       </c>
       <c r="J21">
-        <v>0.08151380734173586</v>
+        <v>0.2336538421970484</v>
       </c>
       <c r="K21">
-        <v>1.843816357374749</v>
+        <v>0.5706394882290624</v>
       </c>
       <c r="L21">
-        <v>0.4624328760429961</v>
+        <v>0.2404010750376955</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7523082843651281</v>
+        <v>1.650784097108001</v>
       </c>
       <c r="O21">
-        <v>1.36856040360891</v>
+        <v>2.568549718413806</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.360117605736349</v>
+        <v>0.816572523234214</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1558017349864969</v>
+        <v>0.2516739009498679</v>
       </c>
       <c r="E22">
-        <v>0.07741397813199136</v>
+        <v>0.2059399311598771</v>
       </c>
       <c r="F22">
-        <v>0.6588592582480004</v>
+        <v>1.175493383464627</v>
       </c>
       <c r="G22">
-        <v>0.3957396998417977</v>
+        <v>0.5867765978572947</v>
       </c>
       <c r="H22">
-        <v>0.2949197718667733</v>
+        <v>0.7063004595257354</v>
       </c>
       <c r="I22">
-        <v>0.31499635954005</v>
+        <v>0.9100279987755471</v>
       </c>
       <c r="J22">
-        <v>0.07969589985204006</v>
+        <v>0.2325131106317935</v>
       </c>
       <c r="K22">
-        <v>1.974425909506891</v>
+        <v>0.6111684903765422</v>
       </c>
       <c r="L22">
-        <v>0.4961422233560597</v>
+        <v>0.2497289304908747</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7312915230173687</v>
+        <v>1.641175122342652</v>
       </c>
       <c r="O22">
-        <v>1.406382928367549</v>
+        <v>2.56537271810771</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.312013777981946</v>
+        <v>0.8033010584675537</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1524834761021054</v>
+        <v>0.2511870221321573</v>
       </c>
       <c r="E23">
-        <v>0.07742612358218004</v>
+        <v>0.2063035811560425</v>
       </c>
       <c r="F23">
-        <v>0.6484526096550312</v>
+        <v>1.175692685596246</v>
       </c>
       <c r="G23">
-        <v>0.3878418847017713</v>
+        <v>0.5865041257169281</v>
       </c>
       <c r="H23">
-        <v>0.2932140900216069</v>
+        <v>0.7073793261770618</v>
       </c>
       <c r="I23">
-        <v>0.3184454665697096</v>
+        <v>0.9130852392110853</v>
       </c>
       <c r="J23">
-        <v>0.08065904147602154</v>
+        <v>0.2331172958300112</v>
       </c>
       <c r="K23">
-        <v>1.904700498107587</v>
+        <v>0.5895467167595143</v>
       </c>
       <c r="L23">
-        <v>0.4781344860098216</v>
+        <v>0.2447465736909749</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7424183153444197</v>
+        <v>1.646263955597519</v>
       </c>
       <c r="O23">
-        <v>1.38594558189979</v>
+        <v>2.566968692304641</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.130653795736805</v>
+        <v>0.7533584574551355</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1401480263400146</v>
+        <v>0.2494838601954257</v>
       </c>
       <c r="E24">
-        <v>0.07763680236842418</v>
+        <v>0.2077871384961991</v>
       </c>
       <c r="F24">
-        <v>0.6111779507441852</v>
+        <v>1.177386430959771</v>
       </c>
       <c r="G24">
-        <v>0.3595364789421325</v>
+        <v>0.5860562267040166</v>
       </c>
       <c r="H24">
-        <v>0.2876856246336388</v>
+        <v>0.7119270131015014</v>
       </c>
       <c r="I24">
-        <v>0.3328081728843344</v>
+        <v>0.9253097141848556</v>
       </c>
       <c r="J24">
-        <v>0.08446167222823409</v>
+        <v>0.2355077063203481</v>
       </c>
       <c r="K24">
-        <v>1.64093536805575</v>
+        <v>0.5074579865362523</v>
       </c>
       <c r="L24">
-        <v>0.4102722457941752</v>
+        <v>0.2259637419940219</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7865057641167006</v>
+        <v>1.666408633350638</v>
       </c>
       <c r="O24">
-        <v>1.313884229693883</v>
+        <v>2.575203661282245</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9365118814095865</v>
+        <v>0.700199022805549</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1273045652890445</v>
+        <v>0.2479504403733586</v>
       </c>
       <c r="E25">
-        <v>0.07820183433075911</v>
+        <v>0.2096155351657654</v>
       </c>
       <c r="F25">
-        <v>0.5751541164336516</v>
+        <v>1.181225186047335</v>
       </c>
       <c r="G25">
-        <v>0.3321024121306664</v>
+        <v>0.5868219127107821</v>
       </c>
       <c r="H25">
-        <v>0.2835658268826222</v>
+        <v>0.7178214902967852</v>
       </c>
       <c r="I25">
-        <v>0.3509107915306977</v>
+        <v>0.9398767169578441</v>
       </c>
       <c r="J25">
-        <v>0.08888623692556896</v>
+        <v>0.2383051354257097</v>
       </c>
       <c r="K25">
-        <v>1.35674088317171</v>
+        <v>0.4185171568258852</v>
       </c>
       <c r="L25">
-        <v>0.3376658366848488</v>
+        <v>0.2058974580983772</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8379987517213934</v>
+        <v>1.690001833684473</v>
       </c>
       <c r="O25">
-        <v>1.246551578547539</v>
+        <v>2.588774037902695</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_84/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_84/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6616866237390013</v>
+        <v>0.7945485713236735</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2470851018183993</v>
+        <v>0.1182119080162281</v>
       </c>
       <c r="E2">
-        <v>0.2111592852602122</v>
+        <v>0.07889497913701149</v>
       </c>
       <c r="F2">
-        <v>1.185787563931882</v>
+        <v>0.5518575453065324</v>
       </c>
       <c r="G2">
-        <v>0.58846035291117</v>
+        <v>0.3142492217012531</v>
       </c>
       <c r="H2">
-        <v>0.7230156465604267</v>
+        <v>0.281979682546492</v>
       </c>
       <c r="I2">
-        <v>0.9517935416403063</v>
+        <v>0.3663293862282764</v>
       </c>
       <c r="J2">
-        <v>0.2405543620730919</v>
+        <v>0.09241456499225231</v>
       </c>
       <c r="K2">
-        <v>0.3527072758554084</v>
+        <v>1.147402190172841</v>
       </c>
       <c r="L2">
-        <v>0.1912940963748326</v>
+        <v>0.2845832354776405</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.708981930492296</v>
+        <v>0.8790990827691942</v>
       </c>
       <c r="O2">
-        <v>2.602805716542477</v>
+        <v>1.204952744224272</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6359877030851919</v>
+        <v>0.6988171152808604</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2466644782945124</v>
+        <v>0.1122610274085787</v>
       </c>
       <c r="E3">
-        <v>0.2123293678808338</v>
+        <v>0.07953124607291961</v>
       </c>
       <c r="F3">
-        <v>1.189965429767511</v>
+        <v>0.5379101715119177</v>
       </c>
       <c r="G3">
-        <v>0.5902415309380444</v>
+        <v>0.3034656335920616</v>
       </c>
       <c r="H3">
-        <v>0.7270703289106422</v>
+        <v>0.2817432229254067</v>
       </c>
       <c r="I3">
-        <v>0.9606145213534116</v>
+        <v>0.3780091958501686</v>
       </c>
       <c r="J3">
-        <v>0.2421974671206328</v>
+        <v>0.09497110160175826</v>
       </c>
       <c r="K3">
-        <v>0.3079151559503259</v>
+        <v>1.005313541480092</v>
       </c>
       <c r="L3">
-        <v>0.1815066864805885</v>
+        <v>0.2487828401530408</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.722851070207874</v>
+        <v>0.9088468426719949</v>
       </c>
       <c r="O3">
-        <v>2.614839666790189</v>
+        <v>1.181288777717882</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6204099208984246</v>
+        <v>0.6402332135065762</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2464884816562147</v>
+        <v>0.1087065451579932</v>
       </c>
       <c r="E4">
-        <v>0.2131091252754995</v>
+        <v>0.08000204784946341</v>
       </c>
       <c r="F4">
-        <v>1.193067388681897</v>
+        <v>0.5302008243113789</v>
       </c>
       <c r="G4">
-        <v>0.5916662550925054</v>
+        <v>0.2974474226625219</v>
       </c>
       <c r="H4">
-        <v>0.7298242064953939</v>
+        <v>0.2819916305335752</v>
       </c>
       <c r="I4">
-        <v>0.9663985993415238</v>
+        <v>0.3857645256483337</v>
       </c>
       <c r="J4">
-        <v>0.2432651180077952</v>
+        <v>0.09662128612168397</v>
       </c>
       <c r="K4">
-        <v>0.2803216571898872</v>
+        <v>0.9179148621860236</v>
       </c>
       <c r="L4">
-        <v>0.1755521655301777</v>
+        <v>0.2268687480383846</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.731863946350003</v>
+        <v>0.9280165722813294</v>
       </c>
       <c r="O4">
-        <v>2.6234754833133</v>
+        <v>1.168852949022423</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6141131818014287</v>
+        <v>0.6164037314179325</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2464375290769638</v>
+        <v>0.1072823972470545</v>
       </c>
       <c r="E5">
-        <v>0.2134423357374047</v>
+        <v>0.08021376689253579</v>
       </c>
       <c r="F5">
-        <v>1.194466619642306</v>
+        <v>0.5272664946289112</v>
       </c>
       <c r="G5">
-        <v>0.5923301426128091</v>
+        <v>0.2951400835595663</v>
       </c>
       <c r="H5">
-        <v>0.7310129862582642</v>
+        <v>0.282189004731265</v>
       </c>
       <c r="I5">
-        <v>0.9688482581717732</v>
+        <v>0.3890683766748584</v>
       </c>
       <c r="J5">
-        <v>0.2437149997586063</v>
+        <v>0.09731381648838378</v>
       </c>
       <c r="K5">
-        <v>0.2690550011340065</v>
+        <v>0.8822539333798431</v>
       </c>
       <c r="L5">
-        <v>0.1731396829976575</v>
+        <v>0.2179531150765257</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.735661892189604</v>
+        <v>0.9360515278766464</v>
       </c>
       <c r="O5">
-        <v>2.627308496773708</v>
+        <v>1.164292103467389</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6130707333489624</v>
+        <v>0.612449369198572</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2464303251118451</v>
+        <v>0.1070473694409273</v>
       </c>
       <c r="E6">
-        <v>0.2134985993761358</v>
+        <v>0.08025011418553163</v>
       </c>
       <c r="F6">
-        <v>1.194707129692567</v>
+        <v>0.5267915560683747</v>
       </c>
       <c r="G6">
-        <v>0.5924454132549926</v>
+        <v>0.2947655323983582</v>
       </c>
       <c r="H6">
-        <v>0.731214404632496</v>
+        <v>0.2822275050794119</v>
       </c>
       <c r="I6">
-        <v>0.9692606171286755</v>
+        <v>0.3896255499091836</v>
       </c>
       <c r="J6">
-        <v>0.2437905972284184</v>
+        <v>0.09743001784759597</v>
       </c>
       <c r="K6">
-        <v>0.2671828710742545</v>
+        <v>0.8763295583142963</v>
       </c>
       <c r="L6">
-        <v>0.1727399457271588</v>
+        <v>0.2164734902210768</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.736300098711045</v>
+        <v>0.9373990802957444</v>
       </c>
       <c r="O6">
-        <v>2.627963930190518</v>
+        <v>1.163564830760947</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6203247921300772</v>
+        <v>0.6399116696407248</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2464877102980267</v>
+        <v>0.1086872409308981</v>
       </c>
       <c r="E7">
-        <v>0.2131135564554292</v>
+        <v>0.08000482311114432</v>
       </c>
       <c r="F7">
-        <v>1.193085711697222</v>
+        <v>0.5301604213634548</v>
       </c>
       <c r="G7">
-        <v>0.5916748711636259</v>
+        <v>0.2974157258364087</v>
       </c>
       <c r="H7">
-        <v>0.7298399692001993</v>
+        <v>0.2819939067493848</v>
       </c>
       <c r="I7">
-        <v>0.9664312612646242</v>
+        <v>0.3858085058630678</v>
       </c>
       <c r="J7">
-        <v>0.2432711252902209</v>
+        <v>0.0966305447941469</v>
       </c>
       <c r="K7">
-        <v>0.2801697994856625</v>
+        <v>0.9174341174918368</v>
       </c>
       <c r="L7">
-        <v>0.1755195728548813</v>
+        <v>0.2267484529625676</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.731914660000605</v>
+        <v>0.9281240365952854</v>
       </c>
       <c r="O7">
-        <v>2.623525905516374</v>
+        <v>1.168789413058875</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.652784219104916</v>
+        <v>0.7614964974178804</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2469230438662393</v>
+        <v>0.1161390116471637</v>
       </c>
       <c r="E8">
-        <v>0.2115500222377662</v>
+        <v>0.07909755767819782</v>
       </c>
       <c r="F8">
-        <v>1.187116806845495</v>
+        <v>0.5468665183747845</v>
       </c>
       <c r="G8">
-        <v>0.5890058175318487</v>
+        <v>0.3104019087952992</v>
       </c>
       <c r="H8">
-        <v>0.7243589053938209</v>
+        <v>0.2818147229471037</v>
       </c>
       <c r="I8">
-        <v>0.9547586898400127</v>
+        <v>0.3702333629068022</v>
       </c>
       <c r="J8">
-        <v>0.2411087206380533</v>
+        <v>0.09327925854432983</v>
       </c>
       <c r="K8">
-        <v>0.3372822917897622</v>
+        <v>1.098438502151055</v>
       </c>
       <c r="L8">
-        <v>0.1879081048985256</v>
+        <v>0.2722237368592317</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.713660888593669</v>
+        <v>0.8891657467308676</v>
       </c>
       <c r="O8">
-        <v>2.606696400670728</v>
+        <v>1.196346710088264</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7180093834035972</v>
+        <v>1.001737517573332</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2484261827361536</v>
+        <v>0.1315722022243477</v>
       </c>
       <c r="E9">
-        <v>0.208969042982984</v>
+        <v>0.07796758464312781</v>
       </c>
       <c r="F9">
-        <v>1.179662831927331</v>
+        <v>0.5867635710608354</v>
       </c>
       <c r="G9">
-        <v>0.5863971013587559</v>
+        <v>0.3409586446085697</v>
       </c>
       <c r="H9">
-        <v>0.7157034869399297</v>
+        <v>0.2847198635489434</v>
       </c>
       <c r="I9">
-        <v>0.9347849908283621</v>
+        <v>0.3444782181696446</v>
       </c>
       <c r="J9">
-        <v>0.2373334579062281</v>
+        <v>0.08735332435568566</v>
       </c>
       <c r="K9">
-        <v>0.4485284148085782</v>
+        <v>1.452462929451968</v>
       </c>
       <c r="L9">
-        <v>0.2126305235586585</v>
+        <v>0.3620563038789726</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.681804920041547</v>
+        <v>0.8201453302065431</v>
       </c>
       <c r="O9">
-        <v>2.583575860193321</v>
+        <v>1.267931277390275</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7668588338320603</v>
+        <v>1.17974796469511</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.249922354354112</v>
+        <v>0.1434581345218078</v>
       </c>
       <c r="E10">
-        <v>0.2073665721048705</v>
+        <v>0.07755238536335085</v>
       </c>
       <c r="F10">
-        <v>1.176768654271896</v>
+        <v>0.6209478309464416</v>
       </c>
       <c r="G10">
-        <v>0.5860795497332845</v>
+        <v>0.3669598060541261</v>
       </c>
       <c r="H10">
-        <v>0.7106149862590314</v>
+        <v>0.2890342900353176</v>
       </c>
       <c r="I10">
-        <v>0.9218831893753112</v>
+        <v>0.3286967908520921</v>
       </c>
       <c r="J10">
-        <v>0.2348417119757178</v>
+        <v>0.08340379845262369</v>
       </c>
       <c r="K10">
-        <v>0.5297706737494821</v>
+        <v>1.712484505844429</v>
       </c>
       <c r="L10">
-        <v>0.231046790862905</v>
+        <v>0.4286383337083493</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.660794453959074</v>
+        <v>0.7742196670078343</v>
       </c>
       <c r="O10">
-        <v>2.572599980753864</v>
+        <v>1.332577728643997</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7892772708449058</v>
+        <v>1.261151070709161</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2506872307180998</v>
+        <v>0.1489951058851346</v>
       </c>
       <c r="E11">
-        <v>0.2067009435461635</v>
+        <v>0.07745801995701385</v>
       </c>
       <c r="F11">
-        <v>1.176010833123847</v>
+        <v>0.6376784373486615</v>
       </c>
       <c r="G11">
-        <v>0.5862820694411539</v>
+        <v>0.3796639356841922</v>
       </c>
       <c r="H11">
-        <v>0.7085749055052162</v>
+        <v>0.2915159058190255</v>
       </c>
       <c r="I11">
-        <v>0.9163977448682914</v>
+        <v>0.3222506729407861</v>
       </c>
       <c r="J11">
-        <v>0.2337690179856242</v>
+        <v>0.08169721411191233</v>
       </c>
       <c r="K11">
-        <v>0.5666170145210003</v>
+        <v>1.830873770171934</v>
       </c>
       <c r="L11">
-        <v>0.2394779946715602</v>
+        <v>0.4590978584901961</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.651754515700116</v>
+        <v>0.7544320876890502</v>
       </c>
       <c r="O11">
-        <v>2.568909222783503</v>
+        <v>1.364921178813148</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7977941938718516</v>
+        <v>1.29204543943527</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2509889087038601</v>
+        <v>0.1511114344688735</v>
       </c>
       <c r="E12">
-        <v>0.2064579629957635</v>
+        <v>0.07743625845844804</v>
       </c>
       <c r="F12">
-        <v>1.175804039078287</v>
+        <v>0.6441941852070627</v>
       </c>
       <c r="G12">
-        <v>0.5864086176201226</v>
+        <v>0.3846098022537774</v>
       </c>
       <c r="H12">
-        <v>0.7078417916754631</v>
+        <v>0.2925342639657913</v>
       </c>
       <c r="I12">
-        <v>0.9143756455530685</v>
+        <v>0.3199196080237421</v>
       </c>
       <c r="J12">
-        <v>0.2333715356919068</v>
+        <v>0.08106413984581629</v>
       </c>
       <c r="K12">
-        <v>0.5805530644264536</v>
+        <v>1.875729490465545</v>
       </c>
       <c r="L12">
-        <v>0.2426781861773009</v>
+        <v>0.4706603781475707</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.648405687538805</v>
+        <v>0.7471037729276198</v>
       </c>
       <c r="O12">
-        <v>2.567698628542502</v>
+        <v>1.377618755663462</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7959587083940391</v>
+        <v>1.285388598846168</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2509234029356406</v>
+        <v>0.1506547587486722</v>
       </c>
       <c r="E13">
-        <v>0.2065098899141109</v>
+        <v>0.07744031748779889</v>
       </c>
       <c r="F13">
-        <v>1.175845012753591</v>
+        <v>0.6427827123413721</v>
       </c>
       <c r="G13">
-        <v>0.5863791463280279</v>
+        <v>0.3835384626668201</v>
       </c>
       <c r="H13">
-        <v>0.7079979289167682</v>
+        <v>0.2923113793576277</v>
       </c>
       <c r="I13">
-        <v>0.9148086901440955</v>
+        <v>0.3204166801503021</v>
       </c>
       <c r="J13">
-        <v>0.2334567529671991</v>
+        <v>0.08119989429315577</v>
       </c>
       <c r="K13">
-        <v>0.5775524504807095</v>
+        <v>1.866067773627435</v>
       </c>
       <c r="L13">
-        <v>0.2419886386635284</v>
+        <v>0.4681688710276575</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.649123609605198</v>
+        <v>0.7486746273074303</v>
       </c>
       <c r="O13">
-        <v>2.567951037976883</v>
+        <v>1.374863641648602</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7899774152604095</v>
+        <v>1.263691345199618</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2507118091917988</v>
+        <v>0.1491688194046503</v>
       </c>
       <c r="E14">
-        <v>0.2066807716152024</v>
+        <v>0.07745594734514683</v>
       </c>
       <c r="F14">
-        <v>1.175992214185769</v>
+        <v>0.6382108172714496</v>
       </c>
       <c r="G14">
-        <v>0.5862914816108429</v>
+        <v>0.3800680736945594</v>
       </c>
       <c r="H14">
-        <v>0.7085138022106747</v>
+        <v>0.2915980872898842</v>
       </c>
       <c r="I14">
-        <v>0.9162302811436547</v>
+        <v>0.3220566646231049</v>
       </c>
       <c r="J14">
-        <v>0.233736142164906</v>
+        <v>0.08164486543295268</v>
       </c>
       <c r="K14">
-        <v>0.5677638846313755</v>
+        <v>1.834563535112522</v>
       </c>
       <c r="L14">
-        <v>0.2397411277687098</v>
+        <v>0.4600485283476416</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.651477514850765</v>
+        <v>0.7538258441248651</v>
       </c>
       <c r="O14">
-        <v>2.56880587978759</v>
+        <v>1.365956636846477</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7863172666342564</v>
+        <v>1.25041034238518</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.25058376695155</v>
+        <v>0.1482612184512675</v>
       </c>
       <c r="E15">
-        <v>0.2067866229909026</v>
+        <v>0.07746735235691737</v>
       </c>
       <c r="F15">
-        <v>1.1760928155336</v>
+        <v>0.6354341937935573</v>
       </c>
       <c r="G15">
-        <v>0.5862442763801994</v>
+        <v>0.3779602319813335</v>
       </c>
       <c r="H15">
-        <v>0.7088349207911619</v>
+        <v>0.2911715370702552</v>
       </c>
       <c r="I15">
-        <v>0.91710822341323</v>
+        <v>0.323075658662038</v>
       </c>
       <c r="J15">
-        <v>0.2339084115615231</v>
+        <v>0.08191914517256293</v>
       </c>
       <c r="K15">
-        <v>0.5617658838541217</v>
+        <v>1.81526972810687</v>
       </c>
       <c r="L15">
-        <v>0.238365429630619</v>
+        <v>0.4550783608571436</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.652929037068734</v>
+        <v>0.7570027606787129</v>
       </c>
       <c r="O15">
-        <v>2.569353842822608</v>
+        <v>1.36056026739945</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7653976303272998</v>
+        <v>1.174437278889826</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2498740565255417</v>
+        <v>0.1430989725927247</v>
       </c>
       <c r="E16">
-        <v>0.2074113445477828</v>
+        <v>0.07756048645129354</v>
       </c>
       <c r="F16">
-        <v>1.176829408560756</v>
+        <v>0.6198790796963465</v>
       </c>
       <c r="G16">
-        <v>0.586073293543663</v>
+        <v>0.3661479572011359</v>
       </c>
       <c r="H16">
-        <v>0.7107538310964117</v>
+        <v>0.2888828900243681</v>
       </c>
       <c r="I16">
-        <v>0.9222493919030548</v>
+        <v>0.3291331917405493</v>
       </c>
       <c r="J16">
-        <v>0.2349130369539285</v>
+        <v>0.08351715886357525</v>
       </c>
       <c r="K16">
-        <v>0.5273603670277964</v>
+        <v>1.704750364522539</v>
       </c>
       <c r="L16">
-        <v>0.2304968503987084</v>
+        <v>0.4266514731474729</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.661395649788954</v>
+        <v>0.7755355598464639</v>
       </c>
       <c r="O16">
-        <v>2.572867363845603</v>
+        <v>1.330525409169752</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7526139467657345</v>
+        <v>1.127944464103223</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2494601958924818</v>
+        <v>0.1399660271251975</v>
       </c>
       <c r="E17">
-        <v>0.2078107932734028</v>
+        <v>0.07764209439239167</v>
       </c>
       <c r="F17">
-        <v>1.177424272905597</v>
+        <v>0.6106460736391526</v>
       </c>
       <c r="G17">
-        <v>0.5860572442886536</v>
+        <v>0.3591322137440756</v>
       </c>
       <c r="H17">
-        <v>0.7120013205134228</v>
+        <v>0.2876145711614981</v>
       </c>
       <c r="I17">
-        <v>0.9255015592830098</v>
+        <v>0.3330401776625393</v>
       </c>
       <c r="J17">
-        <v>0.2355449027442571</v>
+        <v>0.08452071238868353</v>
       </c>
       <c r="K17">
-        <v>0.5062246019963652</v>
+        <v>1.636983398070271</v>
       </c>
       <c r="L17">
-        <v>0.2256832891149969</v>
+        <v>0.4092587668943821</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.666722225242019</v>
+        <v>0.7871918427305431</v>
       </c>
       <c r="O17">
-        <v>2.575356153929761</v>
+        <v>1.312871055971897</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7452796558939951</v>
+        <v>1.101242570039062</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.249230090009803</v>
+        <v>0.1381762193234977</v>
       </c>
       <c r="E18">
-        <v>0.208046509603184</v>
+        <v>0.07769790509791896</v>
       </c>
       <c r="F18">
-        <v>1.177819026099137</v>
+        <v>0.6054458965095151</v>
       </c>
       <c r="G18">
-        <v>0.5860806743806393</v>
+        <v>0.3551788284564026</v>
       </c>
       <c r="H18">
-        <v>0.7127447047096069</v>
+        <v>0.2869336622664491</v>
       </c>
       <c r="I18">
-        <v>0.9274082337779426</v>
+        <v>0.3353560746495852</v>
       </c>
       <c r="J18">
-        <v>0.235914060575821</v>
+        <v>0.08510639447234603</v>
       </c>
       <c r="K18">
-        <v>0.4940574573193999</v>
+        <v>1.598014838401156</v>
       </c>
       <c r="L18">
-        <v>0.2229197098436373</v>
+        <v>0.3992708131260656</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.669834674599262</v>
+        <v>0.7939997855248286</v>
       </c>
       <c r="O18">
-        <v>2.576910226288391</v>
+        <v>1.302991288931025</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7427995982261848</v>
+        <v>1.092208334349948</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2491535455514935</v>
+        <v>0.1375722862089077</v>
       </c>
       <c r="E19">
-        <v>0.2081273443435609</v>
+        <v>0.0777183140389095</v>
       </c>
       <c r="F19">
-        <v>1.177961722584634</v>
+        <v>0.6037038558821024</v>
       </c>
       <c r="G19">
-        <v>0.5860942180931943</v>
+        <v>0.3538540746359899</v>
       </c>
       <c r="H19">
-        <v>0.713000846014495</v>
+        <v>0.2867113462458519</v>
       </c>
       <c r="I19">
-        <v>0.9280600050797894</v>
+        <v>0.3361518623467568</v>
       </c>
       <c r="J19">
-        <v>0.2360400350583944</v>
+        <v>0.08530614361895772</v>
       </c>
       <c r="K19">
-        <v>0.4899361095953623</v>
+        <v>1.584822062382926</v>
       </c>
       <c r="L19">
-        <v>0.2219848841846925</v>
+        <v>0.3958916845209757</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.670896870260293</v>
+        <v>0.7963224454631863</v>
       </c>
       <c r="O19">
-        <v>2.577457470145646</v>
+        <v>1.299692505151711</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7539728775003312</v>
+        <v>1.132889557269948</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2495034313217701</v>
+        <v>0.1402982675779896</v>
       </c>
       <c r="E20">
-        <v>0.2077676542435025</v>
+        <v>0.07763248615673213</v>
       </c>
       <c r="F20">
-        <v>1.177355505615836</v>
+        <v>0.6116174419789289</v>
       </c>
       <c r="G20">
-        <v>0.5860555727086023</v>
+        <v>0.3598705124868502</v>
       </c>
       <c r="H20">
-        <v>0.7118658471815564</v>
+        <v>0.2877445282806406</v>
       </c>
       <c r="I20">
-        <v>0.9251516232223373</v>
+        <v>0.3326171297319682</v>
       </c>
       <c r="J20">
-        <v>0.2354770471561842</v>
+        <v>0.08441300478139357</v>
       </c>
       <c r="K20">
-        <v>0.5084756241589616</v>
+        <v>1.644196289180854</v>
       </c>
       <c r="L20">
-        <v>0.2261951794895651</v>
+        <v>0.4111085824981018</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.666150157829033</v>
+        <v>0.7859402510888955</v>
       </c>
       <c r="O20">
-        <v>2.575078532525907</v>
+        <v>1.314721781464641</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.791733524150942</v>
+        <v>1.270062424750591</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2507736333952124</v>
+        <v>0.1496047365037185</v>
       </c>
       <c r="E21">
-        <v>0.2066303333685084</v>
+        <v>0.07745097413617863</v>
       </c>
       <c r="F21">
-        <v>1.175946802965839</v>
+        <v>0.6395487153258799</v>
       </c>
       <c r="G21">
-        <v>0.5863158780152844</v>
+        <v>0.3810836696099642</v>
       </c>
       <c r="H21">
-        <v>0.7083612085084496</v>
+        <v>0.2918054316160976</v>
       </c>
       <c r="I21">
-        <v>0.9158112298692842</v>
+        <v>0.3215719403400996</v>
       </c>
       <c r="J21">
-        <v>0.2336538421970484</v>
+        <v>0.08151380734176605</v>
       </c>
       <c r="K21">
-        <v>0.5706394882290624</v>
+        <v>1.843816357374777</v>
       </c>
       <c r="L21">
-        <v>0.2404010750376955</v>
+        <v>0.4624328760429108</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.650784097108001</v>
+        <v>0.7523082843650606</v>
       </c>
       <c r="O21">
-        <v>2.568549718413806</v>
+        <v>1.368560403608882</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.816572523234214</v>
+        <v>1.360117605736207</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2516739009498679</v>
+        <v>0.1558017349864969</v>
       </c>
       <c r="E22">
-        <v>0.2059399311598771</v>
+        <v>0.07741397813196293</v>
       </c>
       <c r="F22">
-        <v>1.175493383464627</v>
+        <v>0.6588592582480004</v>
       </c>
       <c r="G22">
-        <v>0.5867765978572947</v>
+        <v>0.3957396998417408</v>
       </c>
       <c r="H22">
-        <v>0.7063004595257354</v>
+        <v>0.2949197718667733</v>
       </c>
       <c r="I22">
-        <v>0.9100279987755471</v>
+        <v>0.3149963595400642</v>
       </c>
       <c r="J22">
-        <v>0.2325131106317935</v>
+        <v>0.07969589985201342</v>
       </c>
       <c r="K22">
-        <v>0.6111684903765422</v>
+        <v>1.974425909506834</v>
       </c>
       <c r="L22">
-        <v>0.2497289304908747</v>
+        <v>0.4961422233561308</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.641175122342652</v>
+        <v>0.7312915230174255</v>
       </c>
       <c r="O22">
-        <v>2.56537271810771</v>
+        <v>1.406382928367492</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8033010584675537</v>
+        <v>1.312013777981861</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2511870221321573</v>
+        <v>0.1524834761021054</v>
       </c>
       <c r="E23">
-        <v>0.2063035811560425</v>
+        <v>0.07742612358218182</v>
       </c>
       <c r="F23">
-        <v>1.175692685596246</v>
+        <v>0.6484526096550312</v>
       </c>
       <c r="G23">
-        <v>0.5865041257169281</v>
+        <v>0.3878418847017144</v>
       </c>
       <c r="H23">
-        <v>0.7073793261770618</v>
+        <v>0.2932140900216069</v>
       </c>
       <c r="I23">
-        <v>0.9130852392110853</v>
+        <v>0.3184454665697096</v>
       </c>
       <c r="J23">
-        <v>0.2331172958300112</v>
+        <v>0.08065904147600111</v>
       </c>
       <c r="K23">
-        <v>0.5895467167595143</v>
+        <v>1.90470049810753</v>
       </c>
       <c r="L23">
-        <v>0.2447465736909749</v>
+        <v>0.4781344860099352</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.646263955597519</v>
+        <v>0.7424183153444233</v>
       </c>
       <c r="O23">
-        <v>2.566968692304641</v>
+        <v>1.385945581899733</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7533584574551355</v>
+        <v>1.130653795736805</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2494838601954257</v>
+        <v>0.1401480263397872</v>
       </c>
       <c r="E24">
-        <v>0.2077871384961991</v>
+        <v>0.07763680236839754</v>
       </c>
       <c r="F24">
-        <v>1.177386430959771</v>
+        <v>0.611177950744171</v>
       </c>
       <c r="G24">
-        <v>0.5860562267040166</v>
+        <v>0.3595364789421325</v>
       </c>
       <c r="H24">
-        <v>0.7119270131015014</v>
+        <v>0.2876856246337525</v>
       </c>
       <c r="I24">
-        <v>0.9253097141848556</v>
+        <v>0.3328081728843273</v>
       </c>
       <c r="J24">
-        <v>0.2355077063203481</v>
+        <v>0.084461672228346</v>
       </c>
       <c r="K24">
-        <v>0.5074579865362523</v>
+        <v>1.64093536805575</v>
       </c>
       <c r="L24">
-        <v>0.2259637419940219</v>
+        <v>0.4102722457941326</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.666408633350638</v>
+        <v>0.7865057641167645</v>
       </c>
       <c r="O24">
-        <v>2.575203661282245</v>
+        <v>1.313884229693883</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.700199022805549</v>
+        <v>0.9365118814095865</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2479504403733586</v>
+        <v>0.1273045652890161</v>
       </c>
       <c r="E25">
-        <v>0.2096155351657654</v>
+        <v>0.07820183433074313</v>
       </c>
       <c r="F25">
-        <v>1.181225186047335</v>
+        <v>0.5751541164336516</v>
       </c>
       <c r="G25">
-        <v>0.5868219127107821</v>
+        <v>0.3321024121306593</v>
       </c>
       <c r="H25">
-        <v>0.7178214902967852</v>
+        <v>0.2835658268826222</v>
       </c>
       <c r="I25">
-        <v>0.9398767169578441</v>
+        <v>0.3509107915307119</v>
       </c>
       <c r="J25">
-        <v>0.2383051354257097</v>
+        <v>0.08888623692551345</v>
       </c>
       <c r="K25">
-        <v>0.4185171568258852</v>
+        <v>1.356740883171653</v>
       </c>
       <c r="L25">
-        <v>0.2058974580983772</v>
+        <v>0.3376658366846641</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.690001833684473</v>
+        <v>0.8379987517213792</v>
       </c>
       <c r="O25">
-        <v>2.588774037902695</v>
+        <v>1.246551578547454</v>
       </c>
     </row>
   </sheetData>
